--- a/data/trans_camb/P7_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,42</t>
+          <t>-5,28; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,25</t>
+          <t>-7,45; 0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,58</t>
+          <t>-2,81; 6,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; -1,28</t>
+          <t>-12,24; -0,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -1,16</t>
+          <t>-12,53; -1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 2,11</t>
+          <t>-7,61; 2,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,17</t>
+          <t>-6,75; 0,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -1,8</t>
+          <t>-8,14; -1,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,23</t>
+          <t>-3,13; 3,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 37,0</t>
+          <t>-39,81; 36,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 3,04</t>
+          <t>-55,6; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 66,34</t>
+          <t>-19,85; 67,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,44; -6,49</t>
+          <t>-62,19; -5,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,16; -8,14</t>
+          <t>-62,45; -10,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 17,64</t>
+          <t>-38,34; 17,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 1,58</t>
+          <t>-43,72; 0,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,27; -13,71</t>
+          <t>-53,81; -14,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 28,01</t>
+          <t>-20,35; 27,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,91</t>
+          <t>-5,26; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,03</t>
+          <t>-3,64; 5,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,24</t>
+          <t>-2,93; 5,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 4,43</t>
+          <t>-6,9; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,39</t>
+          <t>-6,98; 3,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 3,57</t>
+          <t>-5,4; 3,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,89</t>
+          <t>-4,28; 3,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,85</t>
+          <t>-4,32; 2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,83</t>
+          <t>-3,01; 3,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 55,38</t>
+          <t>-39,33; 52,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 62,24</t>
+          <t>-27,97; 71,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 61,72</t>
+          <t>-22,12; 69,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 33,57</t>
+          <t>-38,74; 30,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 27,03</t>
+          <t>-38,75; 28,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 29,8</t>
+          <t>-29,71; 32,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 24,91</t>
+          <t>-28,87; 28,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 24,9</t>
+          <t>-29,18; 23,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 26,22</t>
+          <t>-20,17; 28,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 10,54</t>
+          <t>1,16; 10,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,03</t>
+          <t>-3,71; 5,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 6,64</t>
+          <t>-13,65; 6,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 5,18</t>
+          <t>-13,62; 3,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 9,76</t>
+          <t>-10,8; 9,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 9,51</t>
+          <t>-8,71; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,98</t>
+          <t>-0,25; 7,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,01</t>
+          <t>-3,68; 5,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,51</t>
+          <t>-13,25; 5,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 74,12</t>
+          <t>5,34; 74,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 44,92</t>
+          <t>-20,28; 39,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,0; 42,82</t>
+          <t>-69,79; 41,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 21,96</t>
+          <t>-41,0; 16,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 43,0</t>
+          <t>-32,46; 39,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 42,81</t>
+          <t>-25,83; 37,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 46,93</t>
+          <t>-0,93; 48,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 28,71</t>
+          <t>-17,25; 29,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 30,49</t>
+          <t>-66,71; 30,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,11</t>
+          <t>-2,29; 4,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,51</t>
+          <t>-2,86; 3,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 6,37</t>
+          <t>-0,2; 6,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,8</t>
+          <t>-7,34; 1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -0,37</t>
+          <t>-8,87; -0,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -2,44</t>
+          <t>-17,31; -2,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,29</t>
+          <t>-3,19; 2,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,14</t>
+          <t>-4,21; 1,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,82</t>
+          <t>-7,17; 1,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 23,96</t>
+          <t>-11,33; 25,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 19,47</t>
+          <t>-14,08; 19,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 36,0</t>
+          <t>-0,9; 37,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 8,39</t>
+          <t>-27,14; 6,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -1,88</t>
+          <t>-33,3; -0,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,84; -10,19</t>
+          <t>-67,62; -9,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 11,61</t>
+          <t>-14,24; 10,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 5,95</t>
+          <t>-18,81; 5,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 8,96</t>
+          <t>-32,32; 7,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 1,14</t>
+          <t>-10,3; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 4,24</t>
+          <t>-7,71; 3,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 5,81</t>
+          <t>-5,99; 6,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,31</t>
+          <t>-2,38; 8,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 3,36</t>
+          <t>-7,09; 3,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 3,26</t>
+          <t>-11,73; 3,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,88</t>
+          <t>-3,96; 4,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,61</t>
+          <t>-5,83; 1,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,55</t>
+          <t>-7,04; 2,94</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 6,33</t>
+          <t>-38,98; 2,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 22,8</t>
+          <t>-28,43; 19,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 29,1</t>
+          <t>-23,06; 35,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 27,27</t>
+          <t>-6,54; 29,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 10,93</t>
+          <t>-19,5; 11,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 10,43</t>
+          <t>-33,14; 10,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 15,19</t>
+          <t>-12,53; 15,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 6,02</t>
+          <t>-18,98; 6,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 9,11</t>
+          <t>-22,73; 10,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,79</t>
+          <t>-2,66; 4,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,03</t>
+          <t>-3,88; 2,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,47</t>
+          <t>-4,07; 1,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 1,08</t>
+          <t>-7,55; 0,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,91</t>
+          <t>-11,1; -2,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -2,05</t>
+          <t>-9,62; -1,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,61</t>
+          <t>-5,52; 1,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -2,83</t>
+          <t>-9,58; -3,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -2,69</t>
+          <t>-9,4; -2,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 176,74</t>
+          <t>-48,1; 198,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,41; 93,58</t>
+          <t>-68,17; 107,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 133,62</t>
+          <t>-70,28; 75,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 3,35</t>
+          <t>-19,77; 1,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,24; -8,36</t>
+          <t>-29,65; -8,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -5,92</t>
+          <t>-25,54; -5,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 2,21</t>
+          <t>-18,04; 4,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -9,53</t>
+          <t>-31,05; -10,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -9,76</t>
+          <t>-30,1; -10,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,84</t>
+          <t>-0,63; 2,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,2</t>
+          <t>-1,69; 1,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,14</t>
+          <t>-2,58; 3,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,09</t>
+          <t>-3,98; 0,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -2,57</t>
+          <t>-6,84; -2,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -3,56</t>
+          <t>-10,45; -3,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,99</t>
+          <t>-1,86; 0,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -1,02</t>
+          <t>-3,74; -0,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -0,82</t>
+          <t>-5,36; -0,77</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 19,21</t>
+          <t>-3,83; 20,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 14,92</t>
+          <t>-10,24; 13,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 20,82</t>
+          <t>-15,86; 21,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 0,36</t>
+          <t>-13,52; 1,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,09; -9,39</t>
+          <t>-23,01; -8,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,57; -12,8</t>
+          <t>-36,29; -12,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 4,59</t>
+          <t>-8,18; 4,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,83</t>
+          <t>-16,42; -4,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-23,57; -3,83</t>
+          <t>-23,53; -3,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
